--- a/fp/fplk/srv/import/Example_import_users.xlsx
+++ b/fp/fplk/srv/import/Example_import_users.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Логин</t>
   </si>
@@ -32,9 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">CACC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">tNew</t>
@@ -134,16 +128,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -190,13 +188,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="Логин"/>
-    <tableColumn id="3" name="Пароль"/>
-    <tableColumn id="4" name="CACC"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Логин"/>
+    <tableColumn id="2" name="Пароль"/>
+    <tableColumn id="3" name="CACC"/>
   </tableColumns>
 </table>
 </file>
@@ -381,59 +378,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16369" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16368" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="3"/>
+      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
